--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail13 Features.xlsx
@@ -3851,7 +3851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,29 +3862,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3905,115 +3903,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4030,72 +4018,66 @@
         <v>6.711470493870993e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2665151330553114</v>
+        <v>1.909327961388116e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.489373590070874</v>
+        <v>5.003602765334079e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.909327961388116e-06</v>
+        <v>-0.02710393153614472</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.003602765334079e-06</v>
+        <v>0.09138068219146923</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02710393153614472</v>
+        <v>0.009083595401606376</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.09138068219146923</v>
+        <v>1.860148867377418</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.009083595401606376</v>
+        <v>2.023773709228263</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.837601890842654</v>
+        <v>4.291860128539639</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.023773709228263</v>
+        <v>2.782643923487447e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.291860128539639</v>
+        <v>148043658.1294342</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.782643923487447e-15</v>
+        <v>8.093791339922712e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>148043658.1294342</v>
+        <v>60.9869973723381</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.093791339922712e-07</v>
+        <v>0.000123615014474178</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>60.9869973723381</v>
+        <v>8.743208803428589</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000123615014474178</v>
+        <v>1.289953890018186</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.743208803428589</v>
+        <v>0.009449589104253836</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.289953890018186</v>
+        <v>3.03634640955222</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009449589104253836</v>
+        <v>0.9646117400832847</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.03634640955222</v>
+        <v>1.571699540506752</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9646117400832847</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.571699540506752</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2972362851294417</v>
       </c>
     </row>
@@ -4110,72 +4092,66 @@
         <v>6.779144352995752e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3116427722888302</v>
+        <v>1.911458578139312e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.483176144729455</v>
+        <v>4.98445514884607e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.911458578139312e-06</v>
+        <v>-0.02968509779317216</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.98445514884607e-06</v>
+        <v>0.08690056240279108</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02968509779317216</v>
+        <v>0.008430870996454554</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.08690056240279108</v>
+        <v>1.865215964772006</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.008430870996454554</v>
+        <v>2.017059556869635</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.841731956036313</v>
+        <v>4.206462242812936</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.017059556869635</v>
+        <v>2.896775013755035e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.206462242812936</v>
+        <v>143614193.584151</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.896775013755035e-15</v>
+        <v>8.344922776230327e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>143614193.584151</v>
+        <v>59.7460906772623</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.344922776230327e-07</v>
+        <v>0.0001294685959077032</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>59.7460906772623</v>
+        <v>8.450155318577533</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001294685959077032</v>
+        <v>1.342599218461678</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.450155318577533</v>
+        <v>0.009244721262463822</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.342599218461678</v>
+        <v>3.095570737282539</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009244721262463822</v>
+        <v>0.9654923055570325</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.095570737282539</v>
+        <v>1.572234117946943</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9654923055570325</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.572234117946943</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.273766876652847</v>
       </c>
     </row>
@@ -4190,72 +4166,66 @@
         <v>6.827917421347153e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.365514307957737</v>
+        <v>1.911458578139312e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.458366232613184</v>
+        <v>4.963267179529505e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.911458578139312e-06</v>
+        <v>-0.03260296788649027</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.963267179529505e-06</v>
+        <v>0.08146219660608522</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03260296788649027</v>
+        <v>0.007696411869538572</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.08146219660608522</v>
+        <v>1.864664453265964</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.007696411869538572</v>
+        <v>1.88404645580582</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.839308948429762</v>
+        <v>4.174989089481114</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.88404645580582</v>
+        <v>2.9406143087299e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.174989089481114</v>
+        <v>138403736.2534112</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.9406143087299e-15</v>
+        <v>8.657859645890912e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>138403736.2534112</v>
+        <v>56.32921442292613</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.657859645890912e-07</v>
+        <v>0.0001432843795892399</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>56.32921442292613</v>
+        <v>8.268366194296702</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001432843795892399</v>
+        <v>1.411148967972572</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.268366194296702</v>
+        <v>0.009795762632524133</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.411148967972572</v>
+        <v>3.074924572511455</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009795762632524133</v>
+        <v>0.9653414120819108</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.074924572511455</v>
+        <v>1.537442224032816</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9653414120819108</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.537442224032816</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2578257618117165</v>
       </c>
     </row>
@@ -4270,72 +4240,66 @@
         <v>6.848447738210356e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4275168438109784</v>
+        <v>1.911458578139312e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.410143452346919</v>
+        <v>4.939793554018682e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.911458578139312e-06</v>
+        <v>-0.03612469538064066</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.939793554018682e-06</v>
+        <v>0.07386477939315696</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03612469538064066</v>
+        <v>0.006756841480379883</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07386477939315696</v>
+        <v>1.856122963735521</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.006756841480379883</v>
+        <v>1.906323224921615</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.831046524019666</v>
+        <v>4.238377240386722</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.906323224921615</v>
+        <v>3.197644971985328e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.238377240386722</v>
+        <v>122626619.6706511</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.197644971985328e-15</v>
+        <v>9.692222462584255e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>122626619.6706511</v>
+        <v>48.08390789176586</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.692222462584255e-07</v>
+        <v>0.0001508537625263203</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>48.08390789176586</v>
+        <v>8.810279315370794</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001508537625263203</v>
+        <v>1.324856748984701</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.810279315370794</v>
+        <v>0.01170942316173703</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.324856748984701</v>
+        <v>3.00824061875068</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01170942316173703</v>
+        <v>0.9646204078106053</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.00824061875068</v>
+        <v>1.576182227843508</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9646204078106053</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.576182227843508</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2482040814092568</v>
       </c>
     </row>
@@ -4712,7 +4676,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.804661396000563</v>
+        <v>1.802589687284808</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.19865045680081</v>
@@ -4801,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.819179942992929</v>
+        <v>1.814760195513386</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.859629845878259</v>
@@ -4890,7 +4854,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.82156544798173</v>
+        <v>1.814690851059611</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.011473934917663</v>
@@ -4979,7 +4943,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.833909761763788</v>
+        <v>1.821649586926302</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.481315077805188</v>
@@ -5068,7 +5032,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.844226352888039</v>
+        <v>1.824990891715983</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.462369953823544</v>
@@ -5157,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.844883097614261</v>
+        <v>1.822770234673239</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.704328035483686</v>
@@ -5246,7 +5210,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.831560125608948</v>
+        <v>1.811972322213205</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.495403800528916</v>
@@ -5335,7 +5299,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.833800882801592</v>
+        <v>1.815155054327556</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.466406176109049</v>
@@ -5424,7 +5388,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.829848042786749</v>
+        <v>1.812462296682704</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.63367581308914</v>
@@ -5513,7 +5477,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.830139319879242</v>
+        <v>1.810471802823843</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.957458106188014</v>
@@ -5602,7 +5566,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.837791858364078</v>
+        <v>1.820554215836869</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.701453419350303</v>
@@ -5691,7 +5655,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.85222803562266</v>
+        <v>1.832057081580289</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.422840134022882</v>
@@ -5780,7 +5744,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.87499842023755</v>
+        <v>1.850301604078095</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.925879819662571</v>
@@ -5869,7 +5833,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.885276612787589</v>
+        <v>1.851974441285186</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.62815695902386</v>
@@ -5958,7 +5922,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.877872874293808</v>
+        <v>1.84178106493824</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.826026402629809</v>
@@ -6047,7 +6011,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.866896495402542</v>
+        <v>1.833751957012212</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.674665023101653</v>
@@ -6136,7 +6100,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.863374893023876</v>
+        <v>1.828221128112189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.410678370230311</v>
@@ -6225,7 +6189,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.860270064188626</v>
+        <v>1.825122173430195</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.542754735129147</v>
@@ -6314,7 +6278,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.879038793502726</v>
+        <v>1.844832588692707</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.066360808146788</v>
@@ -6403,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.862220274809546</v>
+        <v>1.839477403373645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.318185160290335</v>
@@ -6492,7 +6456,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.865568656032389</v>
+        <v>1.842946964155181</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.857620223564776</v>
@@ -6581,7 +6545,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.873668499193792</v>
+        <v>1.849698484929646</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.781739872308094</v>
@@ -6670,7 +6634,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.855500135687447</v>
+        <v>1.836118226820846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.268785712821437</v>
@@ -6759,7 +6723,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.860095663638755</v>
+        <v>1.844912220480278</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.769282596862753</v>
@@ -6848,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.863675415819011</v>
+        <v>1.850926681483867</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.40576430788235</v>
@@ -6937,7 +6901,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.870090195692925</v>
+        <v>1.853143617851924</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.358236328507752</v>
@@ -7026,7 +6990,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.853068548154923</v>
+        <v>1.839671533128245</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.56340603985632</v>
@@ -7115,7 +7079,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.852946804684547</v>
+        <v>1.839127686725303</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.366167911159815</v>
@@ -7204,7 +7168,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.849509911882193</v>
+        <v>1.838321662167373</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.51232624220303</v>
@@ -7293,7 +7257,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.859570675659272</v>
+        <v>1.844604526063923</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.894043564199799</v>
@@ -7382,7 +7346,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.857432639966001</v>
+        <v>1.843083559609496</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.455939852587352</v>
@@ -7471,7 +7435,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.853996491611929</v>
+        <v>1.839329041792674</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.22857732674433</v>
@@ -7560,7 +7524,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.845708722799566</v>
+        <v>1.833520357879611</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.323797129747518</v>
@@ -7649,7 +7613,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.844615572826286</v>
+        <v>1.830353256262133</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.550340111498416</v>
@@ -7738,7 +7702,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.866208007992343</v>
+        <v>1.847081302977153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.202726002496846</v>
@@ -7827,7 +7791,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.867823768526473</v>
+        <v>1.8498091555205</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.55202579404791</v>
@@ -7916,7 +7880,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.86584249378576</v>
+        <v>1.847483553639304</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.839900568162108</v>
@@ -8005,7 +7969,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.884196666057345</v>
+        <v>1.8560922047697</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.141735809594941</v>
@@ -8094,7 +8058,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.879529330055033</v>
+        <v>1.851614029123206</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.420896857160278</v>
@@ -8183,7 +8147,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.894186913285717</v>
+        <v>1.85979585910467</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.12885395331948</v>
@@ -8272,7 +8236,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.883495007980433</v>
+        <v>1.855003206903084</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.764404735630244</v>
@@ -8361,7 +8325,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.901892375113484</v>
+        <v>1.87087032699287</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.130956884577434</v>
@@ -8450,7 +8414,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.8970100214329</v>
+        <v>1.865028740376283</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.461957874389836</v>
@@ -8539,7 +8503,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.898183356207705</v>
+        <v>1.87061726986323</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.472002410210196</v>
@@ -8628,7 +8592,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.868596597433304</v>
+        <v>1.850115098950736</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.058345611122109</v>
@@ -8717,7 +8681,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.874335690048645</v>
+        <v>1.859222568419462</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.699779361391689</v>
@@ -8806,7 +8770,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.881574031479537</v>
+        <v>1.868177149824801</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.084757483689065</v>
@@ -8895,7 +8859,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.877722832587411</v>
+        <v>1.856902760759828</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.97677911393211</v>
@@ -8984,7 +8948,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.883479192979811</v>
+        <v>1.861932049286856</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.559020051797455</v>
@@ -9270,7 +9234,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.567108441588951</v>
+        <v>1.587513114833751</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.015665073706873</v>
@@ -9359,7 +9323,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596060683211913</v>
+        <v>1.617960101589381</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.758820771642802</v>
@@ -9448,7 +9412,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.609912609228001</v>
+        <v>1.626350293492576</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.832513398647119</v>
@@ -9537,7 +9501,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.617285955379307</v>
+        <v>1.635667577845497</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.868929193768715</v>
@@ -9626,7 +9590,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.5972133389255</v>
+        <v>1.613122802679516</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.735455581749134</v>
@@ -9715,7 +9679,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.587616253834609</v>
+        <v>1.595151885062088</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.86023761133146</v>
@@ -9804,7 +9768,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564173692991826</v>
+        <v>1.571420997363919</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.910974553126333</v>
@@ -9893,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561115139258197</v>
+        <v>1.567690834602859</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.683896172340539</v>
@@ -9982,7 +9946,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563807817285643</v>
+        <v>1.57918926133818</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.808988640458006</v>
@@ -10071,7 +10035,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.572928733802139</v>
+        <v>1.58347175379828</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.476877655438045</v>
@@ -10160,7 +10124,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.572284758761662</v>
+        <v>1.580218913447571</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.915173494240223</v>
@@ -10249,7 +10213,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588089651207862</v>
+        <v>1.59006364340554</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.826424857047833</v>
@@ -10338,7 +10302,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.583553724027599</v>
+        <v>1.590284491217686</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.069357903597537</v>
@@ -10427,7 +10391,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587928584366418</v>
+        <v>1.592790994443442</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.891585654165844</v>
@@ -10516,7 +10480,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5861921343748</v>
+        <v>1.586736551304398</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.869432238608898</v>
@@ -10605,7 +10569,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.549416336485086</v>
+        <v>1.552553551610683</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.086186911739163</v>
@@ -10694,7 +10658,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540552385513634</v>
+        <v>1.545347292958142</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.132201108807397</v>
@@ -10783,7 +10747,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.534005648257116</v>
+        <v>1.541656187457271</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.922594956583053</v>
@@ -10872,7 +10836,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543248002669617</v>
+        <v>1.553828670990128</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.93724741526745</v>
@@ -10961,7 +10925,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.558341901483001</v>
+        <v>1.571548719268417</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.966168993375948</v>
@@ -11050,7 +11014,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.571835025259717</v>
+        <v>1.587051431647608</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.627802762556965</v>
@@ -11139,7 +11103,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.579567341912531</v>
+        <v>1.599173277069819</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.844615237209989</v>
@@ -11228,7 +11192,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584302070687869</v>
+        <v>1.608018757835091</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.842686314651765</v>
@@ -11317,7 +11281,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57371359401493</v>
+        <v>1.599055357862908</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.89068222973035</v>
@@ -11406,7 +11370,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587685751031547</v>
+        <v>1.615542301985984</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.868462104414092</v>
@@ -11495,7 +11459,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.599017808429581</v>
+        <v>1.62127663350888</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.805439343196555</v>
@@ -11584,7 +11548,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.553386044632924</v>
+        <v>1.586131777332355</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.981520234764272</v>
@@ -11673,7 +11637,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54439997910402</v>
+        <v>1.575274954371916</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.08985845749817</v>
@@ -11762,7 +11726,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.518104341923214</v>
+        <v>1.551043572659931</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.110927053686689</v>
@@ -11851,7 +11815,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.524753594825861</v>
+        <v>1.557422138364144</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.63388602863504</v>
@@ -11940,7 +11904,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.535038592652059</v>
+        <v>1.56612038459198</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.728321254505147</v>
@@ -12029,7 +11993,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.535948158220056</v>
+        <v>1.566384782780249</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.014227347440443</v>
@@ -12118,7 +12082,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.53053092339683</v>
+        <v>1.557509270692676</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.960188228220072</v>
@@ -12207,7 +12171,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.531238074066531</v>
+        <v>1.558980248962819</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.782061021544501</v>
@@ -12296,7 +12260,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.518494412902656</v>
+        <v>1.546781179542008</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.884471038856096</v>
@@ -12385,7 +12349,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.503961229957332</v>
+        <v>1.523307526184927</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.718354004861334</v>
@@ -12474,7 +12438,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484580392396623</v>
+        <v>1.504064583314089</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.922812424476369</v>
@@ -12563,7 +12527,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.481503285838662</v>
+        <v>1.494336152443738</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.778913153360815</v>
@@ -12652,7 +12616,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.475627550562411</v>
+        <v>1.48491827028272</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.109416448394249</v>
@@ -12741,7 +12705,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.454152208206566</v>
+        <v>1.465684640712881</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.951075438939871</v>
@@ -12830,7 +12794,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.452735650528374</v>
+        <v>1.459137396168891</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.740207597356101</v>
@@ -12919,7 +12883,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.458487443562431</v>
+        <v>1.467479241089183</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.78999375683284</v>
@@ -13008,7 +12972,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.462081611404354</v>
+        <v>1.469257027321816</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.062995460593696</v>
@@ -13097,7 +13061,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.46514374491073</v>
+        <v>1.472301482226654</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.034687834892947</v>
@@ -13186,7 +13150,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.475161300257189</v>
+        <v>1.484936425984635</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.979858699420377</v>
@@ -13275,7 +13239,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.467350408934058</v>
+        <v>1.476920984779697</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.987616655529678</v>
@@ -13364,7 +13328,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.463359365553486</v>
+        <v>1.477849405630029</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.876087208029586</v>
@@ -13453,7 +13417,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.453978400315275</v>
+        <v>1.468706577573779</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.118031065053426</v>
@@ -13542,7 +13506,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.445091873079229</v>
+        <v>1.461863002172277</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.064994118373007</v>
@@ -13828,7 +13792,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.784087801794095</v>
+        <v>1.76719020907568</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.326264261036053</v>
@@ -13917,7 +13881,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.782728434255504</v>
+        <v>1.764654604620767</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.129528545929001</v>
@@ -14006,7 +13970,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.78851578949605</v>
+        <v>1.773288288576312</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.144394311564951</v>
@@ -14095,7 +14059,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.796371406861065</v>
+        <v>1.773810652438814</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.341350817943204</v>
@@ -14184,7 +14148,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.799424641127641</v>
+        <v>1.77636714050133</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.464377250162596</v>
@@ -14273,7 +14237,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.796347373387075</v>
+        <v>1.773551243336533</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.466590001571177</v>
@@ -14362,7 +14326,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.778770172122069</v>
+        <v>1.758634822328725</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.238062257227019</v>
@@ -14451,7 +14415,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.777153301214331</v>
+        <v>1.751480208430228</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.335413556656815</v>
@@ -14540,7 +14504,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.778199606296725</v>
+        <v>1.752467056261487</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.124724567507656</v>
@@ -14629,7 +14593,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.798289050225695</v>
+        <v>1.770000801138814</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.983938339396271</v>
@@ -14718,7 +14682,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.798970514709394</v>
+        <v>1.773882951760377</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.43803449832136</v>
@@ -14807,7 +14771,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.833049309622847</v>
+        <v>1.798780820588965</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.41218821295386</v>
@@ -14896,7 +14860,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.84868302976266</v>
+        <v>1.815847990433913</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.106517969581652</v>
@@ -14985,7 +14949,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.839675815098356</v>
+        <v>1.80449453688079</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.828763372603565</v>
@@ -15074,7 +15038,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.830587025733303</v>
+        <v>1.787306422345977</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.82729228297668</v>
@@ -15163,7 +15127,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.833143462541272</v>
+        <v>1.786649932009236</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.756268490275548</v>
@@ -15252,7 +15216,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.833186988105872</v>
+        <v>1.786502376099022</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.522765479448361</v>
@@ -15341,7 +15305,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.822725306149111</v>
+        <v>1.780093994346591</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.579134053375917</v>
@@ -15430,7 +15394,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.822685525943394</v>
+        <v>1.785964896301229</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.760657281885212</v>
@@ -15519,7 +15483,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.823314732927056</v>
+        <v>1.787991273292678</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.502776638554103</v>
@@ -15608,7 +15572,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.828137333081737</v>
+        <v>1.79201327403845</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.447182264749425</v>
@@ -15697,7 +15661,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.840407599150442</v>
+        <v>1.806758176756129</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.843165416765888</v>
@@ -15786,7 +15750,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.843790365783667</v>
+        <v>1.81126827950671</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.031924842500318</v>
@@ -15875,7 +15839,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.84598805862671</v>
+        <v>1.81863395314362</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.62195360384466</v>
@@ -15964,7 +15928,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.838672756696123</v>
+        <v>1.81351044139478</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.882494498965408</v>
@@ -16053,7 +16017,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.841849150193204</v>
+        <v>1.816727716556742</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.734127977546882</v>
@@ -16142,7 +16106,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.839112067034266</v>
+        <v>1.813573292085243</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.465688937599223</v>
@@ -16231,7 +16195,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.842769287213436</v>
+        <v>1.816944803404103</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.036080027854577</v>
@@ -16320,7 +16284,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.842243709106498</v>
+        <v>1.818852622296172</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.548482966231775</v>
@@ -16409,7 +16373,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.841140222496522</v>
+        <v>1.824571007564322</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.540653652865896</v>
@@ -16498,7 +16462,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.826482837266446</v>
+        <v>1.814132864494827</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.172052762622405</v>
@@ -16587,7 +16551,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.81328523665076</v>
+        <v>1.798239762711821</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.894217902266751</v>
@@ -16676,7 +16640,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.808966718350221</v>
+        <v>1.789474738966536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.904443860681935</v>
@@ -16765,7 +16729,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.813833698607178</v>
+        <v>1.792640378500215</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.092685314174255</v>
@@ -16854,7 +16818,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.813737900673035</v>
+        <v>1.792495981705548</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.389321938155111</v>
@@ -16943,7 +16907,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.807832737730398</v>
+        <v>1.790665988293836</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.066579216326129</v>
@@ -17032,7 +16996,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.796746900267679</v>
+        <v>1.780055946183678</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.285895241092362</v>
@@ -17121,7 +17085,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.789992303764</v>
+        <v>1.772280849358605</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.046593006200792</v>
@@ -17210,7 +17174,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.77990466069029</v>
+        <v>1.762006093774318</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.075563411352237</v>
@@ -17299,7 +17263,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.783157874786538</v>
+        <v>1.761010792009774</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.83070601838098</v>
@@ -17388,7 +17352,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.78443389138357</v>
+        <v>1.761729938912409</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.903301665464447</v>
@@ -17477,7 +17441,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.785514983463845</v>
+        <v>1.767267923392709</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.27352690396471</v>
@@ -17566,7 +17530,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.78205868572499</v>
+        <v>1.76678312749132</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.492348384768291</v>
@@ -17655,7 +17619,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.787423093466859</v>
+        <v>1.770365632597758</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.544147696793418</v>
@@ -17744,7 +17708,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.783583255102416</v>
+        <v>1.76233911726942</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.028424084685585</v>
@@ -17833,7 +17797,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.800299116961972</v>
+        <v>1.778388036708452</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.662695144223645</v>
@@ -17922,7 +17886,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.812268335328097</v>
+        <v>1.791383690269546</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.887955529902531</v>
@@ -18011,7 +17975,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.817940639239506</v>
+        <v>1.791077338201671</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.398517054615889</v>
@@ -18100,7 +18064,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.817391731528385</v>
+        <v>1.791830767391953</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.078073820669783</v>
@@ -18386,7 +18350,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.84210336448715</v>
+        <v>1.820455768116343</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.512607474579592</v>
@@ -18475,7 +18439,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.852951695747939</v>
+        <v>1.827842772279663</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.413768560128319</v>
@@ -18564,7 +18528,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.852680424137349</v>
+        <v>1.827049621972272</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.261638402788789</v>
@@ -18653,7 +18617,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.853197606749392</v>
+        <v>1.824830816239516</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.508356276755274</v>
@@ -18742,7 +18706,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.853873846523299</v>
+        <v>1.81613567507105</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.457173599318633</v>
@@ -18831,7 +18795,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.84383162860878</v>
+        <v>1.806533636883046</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.747481610657552</v>
@@ -18920,7 +18884,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.818760588809837</v>
+        <v>1.783531319336167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.519311462392671</v>
@@ -19009,7 +18973,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.811770922599412</v>
+        <v>1.770073285995686</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.05564590430817</v>
@@ -19098,7 +19062,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.810144707739209</v>
+        <v>1.767086128026645</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.097531474403303</v>
@@ -19187,7 +19151,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.812989590370326</v>
+        <v>1.764296037609454</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.796888685660375</v>
@@ -19276,7 +19240,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.813577292108983</v>
+        <v>1.768406230846148</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.27519259871835</v>
@@ -19365,7 +19329,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.832562295114328</v>
+        <v>1.784017554198415</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.216600486569807</v>
@@ -19454,7 +19418,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.842679452755065</v>
+        <v>1.796419330802718</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.984891222930145</v>
@@ -19543,7 +19507,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.828492909864263</v>
+        <v>1.778452191857301</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.541977394025095</v>
@@ -19632,7 +19596,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.826457690873444</v>
+        <v>1.772430552631346</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.476875485066822</v>
@@ -19721,7 +19685,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.810307634209148</v>
+        <v>1.758761908318562</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.628639597149543</v>
@@ -19810,7 +19774,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.809423256912191</v>
+        <v>1.75328971260153</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.600194121873012</v>
@@ -19899,7 +19863,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.806924651943548</v>
+        <v>1.755438143005313</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.729420417488169</v>
@@ -19988,7 +19952,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.814723178474037</v>
+        <v>1.766359788524845</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.502877426449894</v>
@@ -20077,7 +20041,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.811620886503105</v>
+        <v>1.765334127637817</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.112265481110467</v>
@@ -20166,7 +20130,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.821269408548904</v>
+        <v>1.775150262912788</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.211589273214082</v>
@@ -20255,7 +20219,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.837993121156897</v>
+        <v>1.787498973688712</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.129979060753703</v>
@@ -20344,7 +20308,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.835204292022006</v>
+        <v>1.792042079748008</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.163591629146176</v>
@@ -20433,7 +20397,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.83163143768355</v>
+        <v>1.787978493577693</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.516757145423687</v>
@@ -20522,7 +20486,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.830807637985744</v>
+        <v>1.792914023428207</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.613006120838746</v>
@@ -20611,7 +20575,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.842584676216529</v>
+        <v>1.798754404930904</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.591079028594607</v>
@@ -20700,7 +20664,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.839170176857899</v>
+        <v>1.797834278874289</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.117550479144655</v>
@@ -20789,7 +20753,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.839053846356981</v>
+        <v>1.799888688295336</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.242894663728496</v>
@@ -20878,7 +20842,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.840700776405279</v>
+        <v>1.802906485689607</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.298628550123251</v>
@@ -20967,7 +20931,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.846390331080827</v>
+        <v>1.812385164038227</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.724420744075568</v>
@@ -21056,7 +21020,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.846530497075073</v>
+        <v>1.809147915501666</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.605721871284674</v>
@@ -21145,7 +21109,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.844049861353858</v>
+        <v>1.811071364045061</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.414107943879488</v>
@@ -21234,7 +21198,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.833702108911701</v>
+        <v>1.80024723678839</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.216779786298504</v>
@@ -21323,7 +21287,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.833430057239708</v>
+        <v>1.797375795804337</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.637336911848086</v>
@@ -21412,7 +21376,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.843673464515055</v>
+        <v>1.808963226477765</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.359547392113066</v>
@@ -21501,7 +21465,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.842349980386096</v>
+        <v>1.807415238452731</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.51897441279774</v>
@@ -21590,7 +21554,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.839102834170038</v>
+        <v>1.808709507019437</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.40285675818544</v>
@@ -21679,7 +21643,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.849199477610052</v>
+        <v>1.8145272352726</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.491857238408729</v>
@@ -21768,7 +21732,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.854730622535023</v>
+        <v>1.822396451094099</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.549810279260702</v>
@@ -21857,7 +21821,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.861269471460679</v>
+        <v>1.82560092061268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.421029162833692</v>
@@ -21946,7 +21910,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.855375942719194</v>
+        <v>1.822016186054865</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.056507351932792</v>
@@ -22035,7 +21999,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.855854862720848</v>
+        <v>1.824091821426863</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.183844570680079</v>
@@ -22124,7 +22088,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.85172632249843</v>
+        <v>1.822102345251707</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.565340963035813</v>
@@ -22213,7 +22177,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.852378757896168</v>
+        <v>1.823110047869456</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.360391120727632</v>
@@ -22302,7 +22266,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.837132734496315</v>
+        <v>1.807578870463129</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.018332761352095</v>
@@ -22391,7 +22355,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.845363128276841</v>
+        <v>1.819461789218299</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.408538658818554</v>
@@ -22480,7 +22444,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.842490235705177</v>
+        <v>1.811742820628838</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.570641617020318</v>
@@ -22569,7 +22533,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.838200986265217</v>
+        <v>1.81091396457319</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.971829208026769</v>
@@ -22658,7 +22622,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.843217454755761</v>
+        <v>1.819251410151637</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.924197152080181</v>
@@ -22944,7 +22908,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.343746750451406</v>
+        <v>1.351382400074893</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.68585703267543</v>
@@ -23033,7 +22997,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342542172535952</v>
+        <v>1.350656493556861</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.691562322284698</v>
@@ -23122,7 +23086,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.358042668899025</v>
+        <v>1.362514656970362</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.681231961636192</v>
@@ -23211,7 +23175,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.398195277215432</v>
+        <v>1.416283922009714</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.641002859723156</v>
@@ -23300,7 +23264,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.396387073216073</v>
+        <v>1.415095153452408</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.638104342353238</v>
@@ -23389,7 +23353,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.403606243721213</v>
+        <v>1.42045195185095</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.618901672061135</v>
@@ -23478,7 +23442,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.390646807288805</v>
+        <v>1.403127891345551</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.689755333877186</v>
@@ -23567,7 +23531,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.392057347076586</v>
+        <v>1.401896213692925</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.691244491326736</v>
@@ -23656,7 +23620,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.388790022783078</v>
+        <v>1.39860091541073</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.703978982866228</v>
@@ -23745,7 +23709,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.447587309117671</v>
+        <v>1.453999084793147</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.635367726192923</v>
@@ -23834,7 +23798,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503515954630332</v>
+        <v>1.507084349323956</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.698334474935332</v>
@@ -23923,7 +23887,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.506142431378265</v>
+        <v>1.511663085359444</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.687327604837196</v>
@@ -24012,7 +23976,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.506175234436473</v>
+        <v>1.51337695868127</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.681386099832545</v>
@@ -24101,7 +24065,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.504327734801966</v>
+        <v>1.512440628547487</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.68375537966561</v>
@@ -24190,7 +24154,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500120316436446</v>
+        <v>1.507155546912819</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.683732275534241</v>
@@ -24279,7 +24243,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.49002858844888</v>
+        <v>1.49738212720115</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.693715207840782</v>
@@ -24368,7 +24332,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496592218938986</v>
+        <v>1.504033483115252</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.689393314172614</v>
@@ -24457,7 +24421,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.497541486501394</v>
+        <v>1.508324313963575</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.695838751834562</v>
@@ -24546,7 +24510,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.502819716582905</v>
+        <v>1.514354890260171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.684290156931169</v>
@@ -24635,7 +24599,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.503380896812547</v>
+        <v>1.511837483842724</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.685196980670028</v>
@@ -24724,7 +24688,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.518563536932503</v>
+        <v>1.525200310956114</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.612263971169685</v>
@@ -24813,7 +24777,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.567753559970061</v>
+        <v>1.581162245196898</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.198632480007509</v>
@@ -24902,7 +24866,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563545745119704</v>
+        <v>1.582519512814391</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.36554491945124</v>
@@ -24991,7 +24955,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.568303870961633</v>
+        <v>1.587535657611991</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.087717580491567</v>
@@ -25080,7 +25044,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.599341018444428</v>
+        <v>1.61606551840888</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.280144196408854</v>
@@ -25169,7 +25133,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.605469705947102</v>
+        <v>1.619908150422469</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.184794399560755</v>
@@ -25258,7 +25222,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.620234704092485</v>
+        <v>1.633243342865498</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.195774221254964</v>
@@ -25347,7 +25311,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.61804515106611</v>
+        <v>1.630447382350918</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.201015950640316</v>
@@ -25436,7 +25400,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.609951659418375</v>
+        <v>1.620348919951236</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.192195601021033</v>
@@ -25525,7 +25489,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.614977509904163</v>
+        <v>1.623152758267176</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.275630837463003</v>
@@ -25614,7 +25578,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.620346967713882</v>
+        <v>1.627095974916537</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.106574798268316</v>
@@ -25703,7 +25667,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588409255121751</v>
+        <v>1.596614251272086</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.163136493031521</v>
@@ -25792,7 +25756,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.575280303363478</v>
+        <v>1.582814308373645</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.233671123817955</v>
@@ -25881,7 +25845,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.572910795654797</v>
+        <v>1.582666479856859</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.233573994350462</v>
@@ -25970,7 +25934,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580487126345764</v>
+        <v>1.590467710065687</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.390818507416659</v>
@@ -26059,7 +26023,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578637828348522</v>
+        <v>1.584176648102896</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.439052643164142</v>
@@ -26148,7 +26112,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566361488352886</v>
+        <v>1.573484907655837</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.522303871871697</v>
@@ -26237,7 +26201,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578238587698883</v>
+        <v>1.584220806218416</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.33899220462991</v>
@@ -26326,7 +26290,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.545713032966856</v>
+        <v>1.55206796877566</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.398695873803008</v>
@@ -26415,7 +26379,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542030147762357</v>
+        <v>1.550981194921137</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.333458312258179</v>
@@ -26504,7 +26468,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.542489677635957</v>
+        <v>1.551807870647368</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.377319111877957</v>
@@ -26593,7 +26557,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.550422207495991</v>
+        <v>1.559135940174749</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.332466561824169</v>
@@ -26682,7 +26646,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551556590642886</v>
+        <v>1.562484601668746</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.377709989404375</v>
@@ -26771,7 +26735,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562492936087258</v>
+        <v>1.576529103918962</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.405721793551205</v>
@@ -26860,7 +26824,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561903240594366</v>
+        <v>1.57774731376057</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.378308052607379</v>
@@ -26949,7 +26913,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.529933178924548</v>
+        <v>1.549035948273319</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.360302693006458</v>
@@ -27038,7 +27002,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.572740417291812</v>
+        <v>1.589611632219887</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.205527584432908</v>
@@ -27127,7 +27091,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585290955330569</v>
+        <v>1.59990324525211</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.393936731483425</v>
@@ -27216,7 +27180,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.590200243479179</v>
+        <v>1.608291973899146</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.399035027042447</v>
@@ -27502,7 +27466,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.728357072283434</v>
+        <v>1.752114945638351</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.859121979147599</v>
@@ -27591,7 +27555,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.756523473424168</v>
+        <v>1.773716144922197</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.737197022953247</v>
@@ -27680,7 +27644,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.768875601569506</v>
+        <v>1.783250512660958</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.710336408586694</v>
@@ -27769,7 +27733,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770626689861211</v>
+        <v>1.780679959400988</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.98070856345245</v>
@@ -27858,7 +27822,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.787302027546585</v>
+        <v>1.790230851231982</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.16959111799762</v>
@@ -27947,7 +27911,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.78767039900736</v>
+        <v>1.790902726002608</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.937785389331465</v>
@@ -28036,7 +28000,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.770229886254258</v>
+        <v>1.771695955288881</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.804834749497621</v>
@@ -28125,7 +28089,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.767865040413182</v>
+        <v>1.762326976959887</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.047779487326133</v>
@@ -28214,7 +28178,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.764436162802189</v>
+        <v>1.75398184072653</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.956243746954531</v>
@@ -28303,7 +28267,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.744406003434494</v>
+        <v>1.733308715978866</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.501451338383814</v>
@@ -28392,7 +28356,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.751777767904113</v>
+        <v>1.738105913503789</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.925722060934513</v>
@@ -28481,7 +28445,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.771014038419366</v>
+        <v>1.748150496076049</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.831527194764724</v>
@@ -28570,7 +28534,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.817009694637709</v>
+        <v>1.785887519106568</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.587868278375869</v>
@@ -28659,7 +28623,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.81955820845975</v>
+        <v>1.778737731999814</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.327564093790464</v>
@@ -28748,7 +28712,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.815686392400597</v>
+        <v>1.763519744782038</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.912024463180956</v>
@@ -28837,7 +28801,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.778078397510335</v>
+        <v>1.740021899036715</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.040103905331791</v>
@@ -28926,7 +28890,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.777093012987815</v>
+        <v>1.739115386992009</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.992833383265646</v>
@@ -29015,7 +28979,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.768799015759048</v>
+        <v>1.735298680821112</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.892656703737563</v>
@@ -29104,7 +29068,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.803430174995674</v>
+        <v>1.764190265898078</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.97475335351291</v>
@@ -29193,7 +29157,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.763835482326999</v>
+        <v>1.74043241459394</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.703451355104667</v>
@@ -29282,7 +29246,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.772051968936193</v>
+        <v>1.753410066662035</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.973485528103948</v>
@@ -29371,7 +29335,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.782692849756807</v>
+        <v>1.766454649681677</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.859483146266962</v>
@@ -29460,7 +29424,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.750294992899826</v>
+        <v>1.744661430048259</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.014071149410419</v>
@@ -29549,7 +29513,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.748993679877751</v>
+        <v>1.747609825818614</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.93555270927503</v>
@@ -29638,7 +29602,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.747587610959922</v>
+        <v>1.747646216309913</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.895183042673694</v>
@@ -29727,7 +29691,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.76742078291006</v>
+        <v>1.764088861992264</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.797164706053348</v>
@@ -29816,7 +29780,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.749296720557448</v>
+        <v>1.757205169356199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.105437927679153</v>
@@ -29905,7 +29869,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.749279042190398</v>
+        <v>1.76179714809174</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.935408606765122</v>
@@ -29994,7 +29958,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.74658865683023</v>
+        <v>1.76123346443258</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.151465461857189</v>
@@ -30083,7 +30047,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.764885633640288</v>
+        <v>1.777866826546815</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.708163975412193</v>
@@ -30172,7 +30136,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.774919495489219</v>
+        <v>1.784447666841076</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.963360351951199</v>
@@ -30261,7 +30225,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.775077339231333</v>
+        <v>1.785533523123987</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.980148443065885</v>
@@ -30350,7 +30314,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.751028361312641</v>
+        <v>1.763172463650339</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.983820397731221</v>
@@ -30439,7 +30403,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.752477995031239</v>
+        <v>1.762031140754252</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.991383407813297</v>
@@ -30528,7 +30492,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.789783797958258</v>
+        <v>1.790303528262977</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.803941633514912</v>
@@ -30617,7 +30581,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.788997555370566</v>
+        <v>1.788383707997363</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.285605606693565</v>
@@ -30706,7 +30670,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.787306437510901</v>
+        <v>1.784986040421989</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.200026257326408</v>
@@ -30795,7 +30759,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.821586236573718</v>
+        <v>1.812036277229267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.253260348321716</v>
@@ -30884,7 +30848,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.827065689271245</v>
+        <v>1.820486542664037</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.903235015740218</v>
@@ -30973,7 +30937,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.861057920612837</v>
+        <v>1.84586504323375</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.042778109621208</v>
@@ -31062,7 +31026,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.833081886080124</v>
+        <v>1.826517825209894</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.763152019615763</v>
@@ -31151,7 +31115,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.855546515479824</v>
+        <v>1.845346253513871</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.031304572547555</v>
@@ -31240,7 +31204,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.856384162679276</v>
+        <v>1.839581889889008</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.698835097959792</v>
@@ -31329,7 +31293,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.861445726444465</v>
+        <v>1.845201201611377</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.969740986912021</v>
@@ -31418,7 +31382,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.809589401758753</v>
+        <v>1.80445739784066</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.245251941902857</v>
@@ -31507,7 +31471,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.809178196040314</v>
+        <v>1.80745096920302</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.895094478637939</v>
@@ -31596,7 +31560,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.811642793331472</v>
+        <v>1.807813692043777</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.229608814946176</v>
@@ -31685,7 +31649,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.816821474686074</v>
+        <v>1.813267928180541</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.905493653783927</v>
@@ -31774,7 +31738,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.81510025086841</v>
+        <v>1.810538916961435</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.79494659096102</v>
